--- a/Healthcare/Eli Lilly.xlsx
+++ b/Healthcare/Eli Lilly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502B562B-C1CB-9241-BB27-E36E3E350967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A1BA5-8457-D848-BFBA-592442E992E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2530,13 +2530,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>384.44</v>
-    <v>276.83</v>
-    <v>0.36309999999999998</v>
-    <v>3.88</v>
-    <v>1.1062000000000001E-2</v>
-    <v>0.36</v>
-    <v>1.0150000000000001E-3</v>
+    <v>454.95</v>
+    <v>283.11</v>
+    <v>0.36420000000000002</v>
+    <v>-8.39</v>
+    <v>-1.8966E-2</v>
+    <v>-0.03</v>
+    <v>-6.9129999999999997E-5</v>
     <v>USD</v>
     <v>Eli Lilly and Company is engaged in drug manufacturing businesses. The Company discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, Tyvyt, and Verzenio. Its immunology products include Olumiant and Taltz. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab, Cialis, and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
     <v>39000</v>
@@ -2544,25 +2544,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Lilly Corporate Ctr, Drop Code 1094, Lilly Corporate Ctr, INDIANAPOLIS, IN, 46285-0001 US</v>
-    <v>359</v>
+    <v>454.95</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45020.99997094844</v>
+    <v>45068.911674571093</v>
     <v>0</v>
-    <v>351.27</v>
-    <v>337721328602</v>
+    <v>432.39</v>
+    <v>411974945871</v>
     <v>ELI LILLY AND COMPANY</v>
     <v>ELI LILLY AND COMPANY</v>
-    <v>352.07</v>
-    <v>51.320900000000002</v>
-    <v>350.74</v>
-    <v>354.62</v>
-    <v>354.98</v>
-    <v>952347100</v>
+    <v>444.31</v>
+    <v>70.226500000000001</v>
+    <v>442.38</v>
+    <v>433.99</v>
+    <v>433.96</v>
+    <v>949272900</v>
     <v>LLY</v>
     <v>ELI LILLY AND COMPANY (XNYS:LLY)</v>
-    <v>3585862</v>
-    <v>3484888</v>
+    <v>4395160</v>
+    <v>3298770</v>
     <v>1901</v>
   </rv>
   <rv s="2">
@@ -2727,9 +2727,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3150,10 +3150,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP93" sqref="AP93"/>
+      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5368,15 +5368,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>11.832682650535713</v>
+        <v>14.434293548003952</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>54.080407475339484</v>
+        <v>65.970879110780174</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>64.572633143152132</v>
+        <v>78.769994048106156</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13501,10 +13501,10 @@
       <c r="AM83" s="1">
         <v>-599700000</v>
       </c>
-      <c r="AT83" s="60" t="s">
+      <c r="AT83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="61"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13624,10 +13624,10 @@
       <c r="AM84" s="1">
         <v>1331700000</v>
       </c>
-      <c r="AT84" s="62" t="s">
+      <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="63"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14793,10 +14793,10 @@
       <c r="AM93" s="1">
         <v>-836100000</v>
       </c>
-      <c r="AT93" s="62" t="s">
+      <c r="AT93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="63"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.36309999999999998</v>
+        <v>0.36420000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>5.6581455000000003E-2</v>
+        <v>5.6628810000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15418,10 +15418,10 @@
       <c r="AM98" s="1">
         <v>-3535800000</v>
       </c>
-      <c r="AT98" s="62" t="s">
+      <c r="AT98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="63"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>4.5876944500853438E-2</v>
+        <v>3.7921733575639625E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15798,7 +15798,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>337721328602</v>
+        <v>411974945871</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.95412305549914656</v>
+        <v>0.96207826642436034</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>353959928602</v>
+        <v>428213545871</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16171,10 +16171,10 @@
       <c r="AM104" s="11">
         <v>2067000000</v>
       </c>
-      <c r="AT104" s="62" t="s">
+      <c r="AT104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="63"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.3288921926201244E-2</v>
+        <v>5.3905417053024311E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16538,7 +16538,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>359395776430.75781</v>
+        <v>351730578438.14929</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>369314721855.20288</v>
+        <v>361649523862.59436</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16579,14 +16579,14 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>5.3288921926201244E-2</v>
+        <v>5.3905417053024311E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="52" t="s">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>310273128441.78302</v>
+        <v>303506936699.86163</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>296246328441.78302</v>
+        <v>289480136699.86163</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>383.81878236208581</v>
+        <v>375.05245776568489</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>354.62</v>
+        <v>433.99</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>8.2338227855410784E-2</v>
+        <v>-0.13580391768085698</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Healthcare/Eli Lilly.xlsx
+++ b/Healthcare/Eli Lilly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0D3E11-1995-3148-98F0-6AA02D418330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB9096-3F73-EC43-8224-773C93951098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1724,9 +1724,11 @@
     <v>Powered by Refinitiv</v>
     <v>629.97</v>
     <v>309.2</v>
-    <v>0.32950000000000002</v>
-    <v>-16.440000000000001</v>
-    <v>-2.7073E-2</v>
+    <v>0.32640000000000002</v>
+    <v>-6.16</v>
+    <v>-1.0426999999999999E-2</v>
+    <v>-0.64</v>
+    <v>-1.0950000000000001E-3</v>
     <v>USD</v>
     <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
     <v>39000</v>
@@ -1734,24 +1736,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Lilly Corporate Ctr, Drop Code 1094, Lilly Corporate Ctr, INDIANAPOLIS, IN, 46285-0001 US</v>
-    <v>605</v>
+    <v>596.91999999999996</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45218.999628113284</v>
+    <v>45219.99957719844</v>
     <v>0</v>
-    <v>578.34</v>
-    <v>560843604160</v>
+    <v>580.88</v>
+    <v>554995945728</v>
     <v>ELI LILLY AND COMPANY</v>
     <v>ELI LILLY AND COMPANY</v>
-    <v>605</v>
+    <v>590</v>
     <v>82.082300000000004</v>
-    <v>607.24</v>
     <v>590.79999999999995</v>
+    <v>584.64</v>
+    <v>584</v>
     <v>949295200</v>
     <v>LLY</v>
     <v>ELI LILLY AND COMPANY (XNYS:LLY)</v>
-    <v>2013</v>
-    <v>3143588</v>
+    <v>3666851</v>
+    <v>3153542</v>
     <v>1901</v>
   </rv>
   <rv s="2">
@@ -1783,6 +1786,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1803,6 +1808,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1819,7 +1825,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1830,13 +1836,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1902,13 +1911,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1953,6 +1968,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1960,6 +1978,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2345,9 +2366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15660,8 +15681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718990-100C-E94B-9657-5D09A68B68F7}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15710,7 +15731,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>560843604160</v>
+        <v>554995945728</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15738,7 +15759,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>584678363622.96436</v>
+        <v>577222445013.44019</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15783,14 +15804,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>497433257393.97327</v>
+        <v>490857403682.34509</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.7073E-2</v>
+        <v>-1.0426999999999999E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
@@ -15833,14 +15854,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>481442357393.97327</v>
+        <v>474866503682.34509</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>590.79999999999995</v>
+        <v>584.64</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>219</v>
@@ -15858,7 +15879,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>16.757106700528848</v>
+        <v>16.582388052466463</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -15886,14 +15907,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>5.91784496285662E-2</v>
+        <v>5.9619928889866197E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>581.12571242793751</v>
+        <v>573.18831844026079</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>225</v>
@@ -15911,14 +15932,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>63.616561270417421</v>
+        <v>62.953260631578949</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>1.4073679874764418E-2</v>
+        <v>1.4217102296887113E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>228</v>
@@ -15945,7 +15966,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-1.6374894333213375E-2</v>
+        <v>-1.9587577927851707E-2</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>231</v>
@@ -16250,7 +16271,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -16300,7 +16321,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.32950000000000002</v>
+        <v>0.32640000000000002</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -16355,7 +16376,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.0545910000000001E-2</v>
+        <v>6.1016768000000006E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -16430,7 +16451,7 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>560843604160</v>
+        <v>554995945728</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -16452,7 +16473,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>579663604160</v>
+        <v>573815945728</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -16475,7 +16496,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>3.2467106551001025E-2</v>
+        <v>3.279797318306147E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -16498,7 +16519,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.96753289344899895</v>
+        <v>0.96720202681693856</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -16538,7 +16559,7 @@
       <c r="M25" s="84"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.91784496285662E-2</v>
+        <v>5.9619928889866197E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="46"/>

--- a/Healthcare/Eli Lilly.xlsx
+++ b/Healthcare/Eli Lilly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB9096-3F73-EC43-8224-773C93951098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4979FC-115B-EA4C-83D7-F717CA5EF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -824,6 +821,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,124 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1270,117 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,248 +1453,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,16 +1737,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1580,14 +1758,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1596,7 +1774,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1724,11 +1901,11 @@
     <v>Powered by Refinitiv</v>
     <v>629.97</v>
     <v>309.2</v>
-    <v>0.32640000000000002</v>
-    <v>-6.16</v>
-    <v>-1.0426999999999999E-2</v>
-    <v>-0.64</v>
-    <v>-1.0950000000000001E-3</v>
+    <v>0.34189999999999998</v>
+    <v>-27.81</v>
+    <v>-4.4917999999999993E-2</v>
+    <v>1.68</v>
+    <v>2.8410000000000002E-3</v>
     <v>USD</v>
     <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
     <v>39000</v>
@@ -1736,25 +1913,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Lilly Corporate Ctr, Drop Code 1094, Lilly Corporate Ctr, INDIANAPOLIS, IN, 46285-0001 US</v>
-    <v>596.91999999999996</v>
+    <v>615.65</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45219.99957719844</v>
+    <v>45240.041665578123</v>
     <v>0</v>
-    <v>580.88</v>
-    <v>554995945728</v>
+    <v>583.42999999999995</v>
+    <v>561344392636</v>
     <v>ELI LILLY AND COMPANY</v>
     <v>ELI LILLY AND COMPANY</v>
-    <v>590</v>
-    <v>82.082300000000004</v>
-    <v>590.79999999999995</v>
-    <v>584.64</v>
-    <v>584</v>
-    <v>949295200</v>
+    <v>614.76</v>
+    <v>106.9751</v>
+    <v>619.13</v>
+    <v>591.32000000000005</v>
+    <v>593</v>
+    <v>949307300</v>
     <v>LLY</v>
     <v>ELI LILLY AND COMPANY (XNYS:LLY)</v>
-    <v>3666851</v>
-    <v>3153542</v>
+    <v>6279799</v>
+    <v>3587642</v>
     <v>1901</v>
   </rv>
   <rv s="2">
@@ -2366,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -15681,8 +15858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718990-100C-E94B-9657-5D09A68B68F7}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15690,1736 +15867,1799 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="75" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>554995945728</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>561344392636</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="77">
         <f>Financials!O8*0.01</f>
         <v>0.77769999999999995</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="77">
         <f>SUM(C11:E11)/3</f>
         <v>8.71104028733624E-2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="79">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-2.5456807156169076E-2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>577222445013.44019</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="80">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>622719940549.09827</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="116" t="s">
+      <c r="K3" s="51">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>6.7723131287518211E-3</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="46"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="82">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-15990900000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>-7.8477621567054914E-2</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="85">
         <f>A5*(1+(5*G3))</f>
-        <v>828465075.79661524</v>
-      </c>
-      <c r="H4" s="52" t="s">
+        <v>828475635.65978229</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="53">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>490857403682.34509</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>530989572861.4082</v>
+      </c>
+      <c r="J4" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="42" cm="1">
+      <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0426999999999999E-2</v>
-      </c>
-      <c r="L4" s="41" t="s">
+        <v>-4.4917999999999993E-2</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="118" t="s">
+      <c r="O4" s="121"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" cm="1">
+        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>949307300</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
-        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>949295200</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.22010000000000002</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
+        <v>9.9591660780677493E-2</v>
+      </c>
+      <c r="F5" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="49">
-        <f>SUM(C15:E15)/3</f>
-        <v>9.9591660780677493E-2</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="51">
+      <c r="G5" s="85">
         <f>Financials!O56</f>
         <v>2829100000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="39">
+        <f>I4+G5-G6</f>
+        <v>514998672861.4082</v>
+      </c>
+      <c r="J5" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="53">
-        <f>I4+G5-G6</f>
-        <v>474866503682.34509</v>
-      </c>
-      <c r="J5" s="50" t="s">
+      <c r="K5" s="87" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>591.32000000000005</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="55" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>584.64</v>
-      </c>
-      <c r="L5" s="48" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="57">
+      <c r="O5" s="102">
         <f>Financials!O21</f>
         <v>388600000</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>16.582388052466463</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="49">
+        <v>16.772069456392483</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>0.12055384523386017</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.58277201259271882</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="85">
         <f>Financials!O96+Financials!O105</f>
         <v>18820000000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="53">
+        <f>N25</f>
+        <v>5.7090509230167188E-2</v>
+      </c>
+      <c r="J6" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="60">
-        <f>N25</f>
-        <v>5.9619928889866197E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="K6" s="41">
+        <f>I5/G4</f>
+        <v>621.62198946414765</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="61">
-        <f>I5/G4</f>
-        <v>573.18831844026079</v>
-      </c>
-      <c r="L6" s="62" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="64">
+      <c r="O6" s="102">
         <f>Financials!O96</f>
         <v>661600000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>62.953260631578949</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>63.673365770871143</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="93">
+        <f>F15/O21</f>
+        <v>1.4061531702995081E-2</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="67">
-        <f>F14/O21</f>
-        <v>1.4217102296887113E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="69">
+      <c r="E7" s="94">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19724684927575886</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="95">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.6879983496721767</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="73" t="s">
+      <c r="K7" s="99">
+        <f>K6/K5-1</f>
+        <v>5.1244655117614224E-2</v>
+      </c>
+      <c r="L7" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="74">
-        <f>K6/K5-1</f>
-        <v>-1.9587577927851707E-2</v>
-      </c>
-      <c r="L7" s="75" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="64">
+      <c r="O7" s="102">
         <f>Financials!O105</f>
         <v>18158400000</v>
       </c>
-      <c r="P7" s="46"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="78">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="104">
         <f>O5/(O6+O7)</f>
         <v>2.0648246546227416E-2</v>
       </c>
-      <c r="P8" s="46"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56">
         <v>2019</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="56">
         <v>2020</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="56">
         <v>2021</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="57">
         <v>2022</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="58">
         <v>2023</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="59">
         <v>2024</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="59">
         <v>2025</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="59">
         <v>2026</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="60">
         <v>2027</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="64">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="101" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="102">
         <f>Financials!O25</f>
         <v>783000000</v>
       </c>
-      <c r="P9" s="46"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="62">
+        <v>22319500000</v>
+      </c>
+      <c r="C10" s="62">
+        <v>24539800000</v>
+      </c>
+      <c r="D10" s="62">
+        <v>28318400000</v>
+      </c>
+      <c r="E10" s="63">
+        <v>28541400000</v>
+      </c>
+      <c r="F10" s="62">
+        <v>33469000000</v>
+      </c>
+      <c r="G10" s="62">
+        <v>38736000000</v>
+      </c>
+      <c r="H10" s="62">
+        <v>45512000000</v>
+      </c>
+      <c r="I10" s="62">
+        <v>50423000000</v>
+      </c>
+      <c r="J10" s="63">
+        <v>57836000000</v>
+      </c>
+      <c r="K10" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="86">
-        <v>22319500000</v>
-      </c>
-      <c r="C10" s="86">
-        <v>24539800000</v>
-      </c>
-      <c r="D10" s="86">
-        <v>28318400000</v>
-      </c>
-      <c r="E10" s="86">
-        <v>28541400000</v>
-      </c>
-      <c r="F10" s="87">
-        <v>33469000000</v>
-      </c>
-      <c r="G10" s="86">
-        <v>38736000000</v>
-      </c>
-      <c r="H10" s="86">
-        <v>45512000000</v>
-      </c>
-      <c r="I10" s="86">
-        <v>50423000000</v>
-      </c>
-      <c r="J10" s="86">
-        <v>57836000000</v>
-      </c>
-      <c r="K10" s="88" t="s">
+      <c r="N10" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="64">
+      <c r="O10" s="102">
         <f>Financials!O24</f>
         <v>7280500000</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90">
+      <c r="A11" s="65"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>9.9478034902215517E-2</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.15397843503207032</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>7.8747386858013524E-3</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>0.17264745247254876</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0.15736950611013167</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0.17492771581990918</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.10790560731235721</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="66">
         <f t="shared" si="0"/>
         <v>0.14701624258770796</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="66">
         <f>SUM(F11:J11)/5</f>
         <v>0.15197330486053096</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="93">
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="105">
         <f>O9/O10</f>
         <v>0.1075475585468031</v>
       </c>
-      <c r="P11" s="46"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="62">
         <v>8318400000</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="62">
         <v>6193700000</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="62">
         <v>5581700000</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="62">
         <v>6244800000</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="67">
         <v>8816000000</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="62">
         <v>11198000000</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="62">
         <v>15295000000</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="62">
         <v>18767000000</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="63">
         <v>19405000000</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="95">
+      <c r="O12" s="105">
         <f>O8*(1-O11)</f>
         <v>1.8427578041908199E-2</v>
       </c>
-      <c r="P12" s="46"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90">
+      <c r="A13" s="65"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.25542171571456052</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>-9.8810081211553658E-2</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>0.11879893222494942</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.41173456315654633</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0.27019056261343022</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0.36586890516163595</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>0.22700228832951952</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="66">
         <f t="shared" si="1"/>
         <v>3.3995843768316769E-2</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="66">
         <f>SUM(F13:J13)/5</f>
         <v>0.26175843260588977</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="118" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="121"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="48">
+        <f>B12/B10</f>
+        <v>0.37269652097941264</v>
+      </c>
+      <c r="C14" s="48">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.25239407004132064</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.19710506243290582</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.21879795665244173</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.26340792972601512</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.28908508880627842</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.33606521357004748</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.37219126192412194</v>
+      </c>
+      <c r="J14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.33551767065495541</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="105">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="62">
+        <v>3835925299</v>
+      </c>
+      <c r="C15" s="62">
+        <v>4778561594</v>
+      </c>
+      <c r="D15" s="62">
+        <v>5695624711</v>
+      </c>
+      <c r="E15" s="62">
+        <v>4904639492</v>
+      </c>
+      <c r="F15" s="67">
+        <v>8158000000</v>
+      </c>
+      <c r="G15" s="62">
+        <v>10795000000</v>
+      </c>
+      <c r="H15" s="62">
+        <v>14317000000</v>
+      </c>
+      <c r="I15" s="62">
+        <v>18667000000</v>
+      </c>
+      <c r="J15" s="63">
+        <v>19496000000</v>
+      </c>
+      <c r="K15" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="86">
-        <v>3835925299</v>
-      </c>
-      <c r="C14" s="86">
-        <v>4778561594</v>
-      </c>
-      <c r="D14" s="86">
-        <v>5695624711</v>
-      </c>
-      <c r="E14" s="86">
-        <v>4904639492</v>
-      </c>
-      <c r="F14" s="87">
-        <v>8158000000</v>
-      </c>
-      <c r="G14" s="86">
-        <v>10795000000</v>
-      </c>
-      <c r="H14" s="86">
-        <v>14317000000</v>
-      </c>
-      <c r="I14" s="86">
-        <v>18667000000</v>
-      </c>
-      <c r="J14" s="86">
-        <v>19496000000</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="63" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="93">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="106" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="69"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.24573896036133425</v>
       </c>
-      <c r="D15" s="90">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>0.19191195906137781</v>
       </c>
-      <c r="E15" s="90">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>-0.13887593708067958</v>
       </c>
-      <c r="F15" s="91">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>0.6633230665182599</v>
       </c>
-      <c r="G15" s="90">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>0.32324099043883314</v>
       </c>
-      <c r="H15" s="90">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>0.32626215840666983</v>
       </c>
-      <c r="I15" s="90">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>0.30383460222113579</v>
       </c>
-      <c r="J15" s="90">
-        <f t="shared" si="2"/>
+      <c r="J16" s="66">
+        <f t="shared" si="3"/>
         <v>4.4409921251406193E-2</v>
       </c>
-      <c r="K15" s="92">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="66">
+        <f>SUM(F16:J16)/5</f>
         <v>0.33221414776726099</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="63" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="97" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.32640000000000002</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="O16" s="105">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="48">
+        <f>B15/B10</f>
+        <v>0.17186430247093348</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.1947269983455448</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.20112805493954461</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.17184298920165095</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.24374794586034837</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.27868133002891365</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.31457637546141676</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.37020803998175433</v>
+      </c>
+      <c r="J17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.33709108513728475</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="108">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>5.8386748000000002E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B18" s="71">
         <v>0.23467140463708588</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C18" s="71">
         <v>0.22912959122231885</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D18" s="71">
         <v>0.21740336796021428</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E18" s="71">
         <v>0.22989190789960762</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="63" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="93">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="104">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.1016768000000006E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="118" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="46"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="120" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1901</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="106">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>18820000000</v>
       </c>
-      <c r="P19" s="46"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="109" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>561344392636</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1901</v>
+      </c>
+      <c r="D21" s="123"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="109">
+        <f>O19+O20</f>
+        <v>580164392636</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="106" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>554995945728</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="63" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="106">
-        <f>O19+O20</f>
-        <v>573815945728</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="77" t="s">
+      <c r="O22" s="110">
+        <f>(O19/O21)</f>
+        <v>3.2439081472219591E-2</v>
+      </c>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="107">
-        <f>(O19/O21)</f>
-        <v>3.279797318306147E-2</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="103" t="s">
+      <c r="O23" s="111">
+        <f>O20/O21</f>
+        <v>0.96756091852778037</v>
+      </c>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="108">
-        <f>O20/O21</f>
-        <v>0.96720202681693856</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="109" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="46"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="111">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.9619928889866197E-2</v>
-      </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="46"/>
+        <v>5.7090509230167188E-2</v>
+      </c>
+      <c r="O25" s="115"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:LLY/explorer/revenue_proj/" xr:uid="{9BC7A7AA-E165-D243-BE12-637F8F71F7F7}"/>

--- a/Healthcare/Eli Lilly.xlsx
+++ b/Healthcare/Eli Lilly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4979FC-115B-EA4C-83D7-F717CA5EF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719EDD5-8B82-8A43-A8DD-B4C2593C4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1762,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1901,11 +1901,11 @@
     <v>Powered by Refinitiv</v>
     <v>629.97</v>
     <v>309.2</v>
-    <v>0.34189999999999998</v>
-    <v>-27.81</v>
-    <v>-4.4917999999999993E-2</v>
-    <v>1.68</v>
-    <v>2.8410000000000002E-3</v>
+    <v>0.33169999999999999</v>
+    <v>0.26</v>
+    <v>4.395E-4</v>
+    <v>-0.76</v>
+    <v>-1.2839999999999998E-3</v>
     <v>USD</v>
     <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
     <v>39000</v>
@@ -1913,25 +1913,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Lilly Corporate Ctr, Drop Code 1094, Lilly Corporate Ctr, INDIANAPOLIS, IN, 46285-0001 US</v>
-    <v>615.65</v>
+    <v>594.53989999999999</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45240.041665578123</v>
+    <v>45260.041262522653</v>
     <v>0</v>
-    <v>583.42999999999995</v>
-    <v>561344392636</v>
+    <v>584.44010000000003</v>
+    <v>561857018578</v>
     <v>ELI LILLY AND COMPANY</v>
     <v>ELI LILLY AND COMPANY</v>
-    <v>614.76</v>
-    <v>106.9751</v>
-    <v>619.13</v>
-    <v>591.32000000000005</v>
-    <v>593</v>
+    <v>592.20000000000005</v>
+    <v>107.0728</v>
+    <v>591.6</v>
+    <v>591.86</v>
+    <v>591.1</v>
     <v>949307300</v>
     <v>LLY</v>
     <v>ELI LILLY AND COMPANY (XNYS:LLY)</v>
-    <v>6279799</v>
-    <v>3587642</v>
+    <v>1908649</v>
+    <v>3379188</v>
     <v>1901</v>
   </rv>
   <rv s="2">
@@ -15859,7 +15859,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15908,7 +15908,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="75" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>561344392636</v>
+        <v>561857018578</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>201</v>
@@ -15936,14 +15936,14 @@
       </c>
       <c r="I3" s="80">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>622719940549.09827</v>
+        <v>653152287875.05261</v>
       </c>
       <c r="J3" s="81" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="51">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>6.7723131287518211E-3</v>
+        <v>6.7661342197369769E-3</v>
       </c>
       <c r="L3" s="52" t="s">
         <v>250</v>
@@ -15986,14 +15986,14 @@
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>530989572861.4082</v>
+        <v>557839175283.80103</v>
       </c>
       <c r="J4" s="84" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.4917999999999993E-2</v>
+        <v>4.395E-4</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>251</v>
@@ -16036,14 +16036,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>514998672861.4082</v>
+        <v>541848275283.80103</v>
       </c>
       <c r="J5" s="84" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>591.32000000000005</v>
+        <v>591.86</v>
       </c>
       <c r="L5" s="88" t="s">
         <v>218</v>
@@ -16061,7 +16061,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>16.772069456392483</v>
+        <v>16.787385896740268</v>
       </c>
       <c r="B6" s="83" t="s">
         <v>220</v>
@@ -16089,14 +16089,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>5.7090509230167188E-2</v>
+        <v>5.5595315014532729E-2</v>
       </c>
       <c r="J6" s="84" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>621.62198946414765</v>
+        <v>654.03042885175898</v>
       </c>
       <c r="L6" s="90" t="s">
         <v>224</v>
@@ -16114,14 +16114,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>63.673365770871143</v>
+        <v>63.731512996597097</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="93">
         <f>F15/O21</f>
-        <v>1.4061531702995081E-2</v>
+        <v>1.4049118079406425E-2</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>227</v>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>5.1244655117614224E-2</v>
+        <v>0.10504245742533524</v>
       </c>
       <c r="L7" s="100" t="s">
         <v>230</v>
@@ -16460,7 +16460,7 @@
       </c>
       <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.3360000000000003E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.34189999999999998</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16606,7 +16606,7 @@
       </c>
       <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.8386748000000002E-2</v>
+        <v>5.6840288000000003E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>561344392636</v>
+        <v>561857018578</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16710,7 +16710,7 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>580164392636</v>
+        <v>580677018578</v>
       </c>
       <c r="P21" s="38"/>
     </row>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>3.2439081472219591E-2</v>
+        <v>3.2410444012555641E-2</v>
       </c>
       <c r="P22" s="38"/>
     </row>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.96756091852778037</v>
+        <v>0.96758955598744434</v>
       </c>
       <c r="P23" s="38"/>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.7090509230167188E-2</v>
+        <v>5.5595315014532729E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="38"/>

--- a/Healthcare/Eli Lilly.xlsx
+++ b/Healthcare/Eli Lilly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719EDD5-8B82-8A43-A8DD-B4C2593C4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00286347-1C97-C449-9718-74FA400F50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1475,9 +1475,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1706,7 +1703,10 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1740,11 +1740,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1762,7 +1765,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1774,6 +1777,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1901,11 +1907,11 @@
     <v>Powered by Refinitiv</v>
     <v>629.97</v>
     <v>309.2</v>
-    <v>0.33169999999999999</v>
-    <v>0.26</v>
-    <v>4.395E-4</v>
-    <v>-0.76</v>
-    <v>-1.2839999999999998E-3</v>
+    <v>0.31819999999999998</v>
+    <v>9.76</v>
+    <v>1.6591000000000002E-2</v>
+    <v>0.55000000000000004</v>
+    <v>9.1969999999999997E-4</v>
     <v>USD</v>
     <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
     <v>39000</v>
@@ -1913,25 +1919,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Lilly Corporate Ctr, Drop Code 1094, Lilly Corporate Ctr, INDIANAPOLIS, IN, 46285-0001 US</v>
-    <v>594.53989999999999</v>
+    <v>598.29999999999995</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45260.041262522653</v>
+    <v>45269.04151320547</v>
     <v>0</v>
-    <v>584.44010000000003</v>
-    <v>561857018578</v>
+    <v>584.77</v>
+    <v>567714244619</v>
     <v>ELI LILLY AND COMPANY</v>
     <v>ELI LILLY AND COMPANY</v>
-    <v>592.20000000000005</v>
-    <v>107.0728</v>
-    <v>591.6</v>
-    <v>591.86</v>
-    <v>591.1</v>
+    <v>589</v>
+    <v>106.4234</v>
+    <v>588.27</v>
+    <v>598.03</v>
+    <v>598.6</v>
     <v>949307300</v>
     <v>LLY</v>
     <v>ELI LILLY AND COMPANY (XNYS:LLY)</v>
-    <v>1908649</v>
-    <v>3379188</v>
+    <v>2446790</v>
+    <v>3409580</v>
     <v>1901</v>
   </rv>
   <rv s="2">
@@ -2096,9 +2102,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15859,7 +15865,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15867,297 +15873,297 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-    </row>
-    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" cm="1">
+      <c r="A3" s="74" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>561857018578</v>
-      </c>
-      <c r="B3" s="76" t="s">
+        <v>567714244619</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="76">
         <f>Financials!O8*0.01</f>
         <v>0.77769999999999995</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="76">
         <f>SUM(C11:E11)/3</f>
         <v>8.71104028733624E-2</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="78">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-2.5456807156169076E-2</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="79">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>653152287875.05261</v>
-      </c>
-      <c r="J3" s="81" t="s">
+        <v>697309163156.82776</v>
+      </c>
+      <c r="J3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="50">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>6.7661342197369769E-3</v>
-      </c>
-      <c r="L3" s="52" t="s">
+        <v>6.6963266045073442E-3</v>
+      </c>
+      <c r="L3" s="51" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="118" t="s">
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="119"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
+      <c r="A4" s="81">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-15990900000</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="82" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>-7.8477621567054914E-2</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="84">
         <f>A5*(1+(5*G3))</f>
         <v>828475635.65978229</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="83" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>557839175283.80103</v>
-      </c>
-      <c r="J4" s="84" t="s">
+        <v>596804699035.19312</v>
+      </c>
+      <c r="J4" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="53" cm="1">
+      <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.395E-4</v>
-      </c>
-      <c r="L4" s="54" t="s">
+        <v>1.6591000000000002E-2</v>
+      </c>
+      <c r="L4" s="53" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="121"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" cm="1">
+      <c r="A5" s="81" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>949307300</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.22010000000000002</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="40">
         <f>SUM(C16:E16)/3</f>
         <v>9.9591660780677493E-2</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="84">
         <f>Financials!O56</f>
         <v>2829100000</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="83" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>541848275283.80103</v>
-      </c>
-      <c r="J5" s="84" t="s">
+        <v>580813799035.19312</v>
+      </c>
+      <c r="J5" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="87" cm="1">
+      <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>591.86</v>
-      </c>
-      <c r="L5" s="88" t="s">
+        <v>598.03</v>
+      </c>
+      <c r="L5" s="87" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="102">
+      <c r="O5" s="101">
         <f>Financials!O21</f>
         <v>388600000</v>
       </c>
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89">
+      <c r="A6" s="88">
         <f>O20/F10</f>
-        <v>16.787385896740268</v>
-      </c>
-      <c r="B6" s="83" t="s">
+        <v>16.962390409602918</v>
+      </c>
+      <c r="B6" s="82" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>0.12055384523386017</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.58277201259271882</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="84">
         <f>Financials!O96+Financials!O105</f>
         <v>18820000000</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <f>N25</f>
-        <v>5.5595315014532729E-2</v>
-      </c>
-      <c r="J6" s="84" t="s">
+        <v>5.3657876671994412E-2</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>654.03042885175898</v>
-      </c>
-      <c r="L6" s="90" t="s">
+        <v>701.06322266513484</v>
+      </c>
+      <c r="L6" s="89" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="101" t="s">
+      <c r="N6" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="102">
+      <c r="O6" s="101">
         <f>Financials!O96</f>
         <v>661600000</v>
       </c>
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="90">
         <f>O20/F12</f>
-        <v>63.731512996597097</v>
-      </c>
-      <c r="B7" s="92" t="s">
+        <v>64.395898890539925</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="92">
         <f>F15/O21</f>
-        <v>1.4049118079406425E-2</v>
-      </c>
-      <c r="D7" s="92" t="s">
+        <v>1.3908821308974485E-2</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="93">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19724684927575886</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="94">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.6879983496721767</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="96">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="98">
         <f>K6/K5-1</f>
-        <v>0.10504245742533524</v>
-      </c>
-      <c r="L7" s="100" t="s">
+        <v>0.17228771577535396</v>
+      </c>
+      <c r="L7" s="99" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="101">
         <f>Financials!O105</f>
         <v>18158400000</v>
       </c>
@@ -16177,101 +16183,101 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="104">
+      <c r="O8" s="103">
         <f>O5/(O6+O7)</f>
         <v>2.0648246546227416E-2</v>
       </c>
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55">
         <v>2019</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>2020</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>2021</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <v>2022</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="57">
         <v>2023</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="58">
         <v>2024</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="58">
         <v>2025</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="58">
         <v>2026</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="59">
         <v>2027</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="101">
         <f>Financials!O25</f>
         <v>783000000</v>
       </c>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="61">
         <v>22319500000</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>24539800000</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>28318400000</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>28541400000</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <v>33469000000</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <v>38736000000</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="61">
         <v>45512000000</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <v>50423000000</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="62">
         <v>57836000000</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="101" t="s">
+      <c r="N10" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="102">
+      <c r="O10" s="101">
         <f>Financials!O24</f>
         <v>7280500000</v>
       </c>
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16301,72 +16307,72 @@
         <f t="shared" si="0"/>
         <v>0.10790560731235721</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="65">
         <f t="shared" si="0"/>
         <v>0.14701624258770796</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="65">
         <f>SUM(F11:J11)/5</f>
         <v>0.15197330486053096</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="104">
         <f>O9/O10</f>
         <v>0.1075475585468031</v>
       </c>
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <v>8318400000</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>6193700000</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="61">
         <v>5581700000</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>6244800000</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="66">
         <v>8816000000</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="61">
         <v>11198000000</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="61">
         <v>15295000000</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="61">
         <v>18767000000</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="62">
         <v>19405000000</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="67" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
-      <c r="N12" s="101" t="s">
+      <c r="N12" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="105">
+      <c r="O12" s="104">
         <f>O8*(1-O11)</f>
         <v>1.8427578041908199E-2</v>
       </c>
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16396,121 +16402,121 @@
         <f t="shared" si="1"/>
         <v>0.22700228832951952</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
         <v>3.3995843768316769E-2</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="65">
         <f>SUM(F13:J13)/5</f>
         <v>0.26175843260588977</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="120" t="s">
+      <c r="N13" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="121"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <f>B12/B10</f>
         <v>0.37269652097941264</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.25239407004132064</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <f t="shared" si="2"/>
         <v>0.19710506243290582</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <f t="shared" si="2"/>
         <v>0.21879795665244173</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <f t="shared" si="2"/>
         <v>0.26340792972601512</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="47">
         <f t="shared" si="2"/>
         <v>0.28908508880627842</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47">
         <f t="shared" si="2"/>
         <v>0.33606521357004748</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="47">
         <f t="shared" si="2"/>
         <v>0.37219126192412194</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <f t="shared" si="2"/>
         <v>0.33551767065495541</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
-      <c r="N14" s="101" t="s">
+      <c r="N14" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="105">
+      <c r="O14" s="104">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="61">
         <v>3835925299</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>4778561594</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="61">
         <v>5695624711</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="61">
         <v>4904639492</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="66">
         <v>8158000000</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <v>10795000000</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <v>14317000000</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="61">
         <v>18667000000</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="62">
         <v>19496000000</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="67" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
-      <c r="N15" s="101" t="s">
+      <c r="N15" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="106" cm="1">
+      <c r="O15" s="105" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.33169999999999999</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16540,104 +16546,104 @@
         <f t="shared" si="3"/>
         <v>0.30383460222113579</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="65">
         <f t="shared" si="3"/>
         <v>4.4409921251406193E-2</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="65">
         <f>SUM(F16:J16)/5</f>
         <v>0.33221414776726099</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
-      <c r="N16" s="101" t="s">
+      <c r="N16" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="105">
+      <c r="O16" s="104">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="47">
         <f>B15/B10</f>
         <v>0.17186430247093348</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.1947269983455448</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <f t="shared" si="4"/>
         <v>0.20112805493954461</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <f t="shared" si="4"/>
         <v>0.17184298920165095</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <f t="shared" si="4"/>
         <v>0.24374794586034837</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <f t="shared" si="4"/>
         <v>0.27868133002891365</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <f t="shared" si="4"/>
         <v>0.31457637546141676</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="47">
         <f t="shared" si="4"/>
         <v>0.37020803998175433</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <f t="shared" si="4"/>
         <v>0.33709108513728475</v>
       </c>
-      <c r="K17" s="50"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
-      <c r="N17" s="107" t="s">
+      <c r="N17" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="108">
+      <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>5.6840288000000003E-2</v>
+        <v>5.4825778000000006E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="70">
         <v>0.23467140463708588</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="70">
         <v>0.22912959122231885</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="70">
         <v>0.21740336796021428</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <v>0.22989190789960762</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="120" t="s">
+      <c r="N18" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="121"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16654,10 +16660,10 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="101" t="s">
+      <c r="N19" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="109">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>18820000000</v>
       </c>
@@ -16677,12 +16683,12 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="101" t="s">
+      <c r="N20" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="109" cm="1">
+      <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>561857018578</v>
+        <v>567714244619</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16692,12 +16698,12 @@
         <v>Pharmaceuticals</v>
       </c>
       <c r="B21" s="122"/>
-      <c r="C21" s="123" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1901</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="123"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -16705,24 +16711,24 @@
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="101" t="s">
+      <c r="N21" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="109">
+      <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>580677018578</v>
+        <v>586534244619</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="str" cm="1">
+      <c r="A22" s="121" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Eli Lilly and Company is engaged in drug manufacturing businesses. It discovers, develops, manufactures, and markets products in the human pharmaceutical products segment. Its diabetes products include Basaglar, Humalog, Humulin, Jardiance, Mounjaro, and Trulicity. Its oncology products consist of Alimta, Cyramza, Erbitux, Jaypirca, Retevmo, and others. Its immunology products include Olumiant, Taltz, oral IL-17 inhibitors and others. Its neuroscience products include Cymbalta, Emgality, and Zyprexa. Its other therapies consist of Bamlanivimab and etesevimab, Bebtelovimab and Forteo. It maintains special business groups for service wholesalers, pharmacy benefit managers, managed care organizations, group purchasing organizations, government and long-term care institutions, hospitals, and certain retail pharmacies. It manufactures and distributes its products through facilities in the United States, including Puerto Rico, and other countries. Its products are sold in over 110 countries.</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -16731,21 +16737,21 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="103" t="s">
+      <c r="N22" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="110">
+      <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>3.2410444012555641E-2</v>
+        <v>3.2086788065077199E-2</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -16754,21 +16760,21 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="107" t="s">
+      <c r="N23" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="111">
+      <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.96758955598744434</v>
+        <v>0.96791321193492275</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
@@ -16777,18 +16783,18 @@
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
-      <c r="N24" s="112" t="s">
+      <c r="N24" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="113"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
@@ -16797,19 +16803,19 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="114">
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.5595315014532729E-2</v>
-      </c>
-      <c r="O25" s="115"/>
+        <v>5.3657876671994412E-2</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -16823,11 +16829,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -16841,11 +16847,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -16859,11 +16865,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -16877,11 +16883,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -17657,9 +17663,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:LLY/explorer/revenue_proj/" xr:uid="{9BC7A7AA-E165-D243-BE12-637F8F71F7F7}"/>
